--- a/Documentation/TestPlan.xlsx
+++ b/Documentation/TestPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lungu\Desktop\individual-track-assignment-andreea-indrilaru\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25D90C-CE99-4E86-B475-7E0EB9467B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194A3AD-1145-4A0B-B883-4C25A891A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>Project Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">Signing up </t>
   </si>
   <si>
-    <t>See all movies on homepage</t>
-  </si>
-  <si>
     <t>Redirected to the home page.</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>Show complaints ordered</t>
-  </si>
-  <si>
-    <t>Receive an email with link to reset password</t>
   </si>
   <si>
     <t>Get confirmation of sending the complaint</t>
@@ -217,63 +211,21 @@
     <t>US-019</t>
   </si>
   <si>
-    <t>US-020</t>
-  </si>
-  <si>
-    <t>US-021</t>
-  </si>
-  <si>
-    <t>US-022</t>
-  </si>
-  <si>
-    <t>US-023</t>
-  </si>
-  <si>
     <t>Viewing the latest news</t>
   </si>
   <si>
     <t>Filter movies based on genre/format</t>
   </si>
   <si>
-    <t>Filter users to send vouchers</t>
-  </si>
-  <si>
-    <t>Reset password</t>
-  </si>
-  <si>
     <t>Send complaints</t>
   </si>
   <si>
-    <t>Choosing payment methods</t>
-  </si>
-  <si>
-    <t>Redirected to the payment page.</t>
-  </si>
-  <si>
-    <t>Selecting seats</t>
-  </si>
-  <si>
-    <t>Show seats selection page</t>
-  </si>
-  <si>
     <t>Edit personal data</t>
   </si>
   <si>
     <t>Confirmation of data being edited.</t>
   </si>
   <si>
-    <t>Viewing personal details</t>
-  </si>
-  <si>
-    <t>Show account info</t>
-  </si>
-  <si>
-    <t>Redeeming vouchers</t>
-  </si>
-  <si>
-    <t>Show if voucher is used or not</t>
-  </si>
-  <si>
     <t>Site visitor</t>
   </si>
   <si>
@@ -283,14 +235,25 @@
     <t>Show movies based on genre/format</t>
   </si>
   <si>
-    <t>Creating of a new ticket after payment has 
-taken place.</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Opera GX</t>
+    <t>See all films on homepage</t>
+  </si>
+  <si>
+    <t>Create ticket</t>
+  </si>
+  <si>
+    <t>View personal data</t>
+  </si>
+  <si>
+    <t>View users</t>
+  </si>
+  <si>
+    <t>See all users</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
   </si>
 </sst>
 </file>
@@ -787,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="2"/>
@@ -1004,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1043,21 +1006,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1076,20 +1039,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1107,20 +1072,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1138,20 +1105,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1169,20 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1200,20 +1171,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1231,14 +1204,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>22</v>
@@ -1261,20 +1234,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1292,14 +1267,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="11" t="s">
@@ -1323,14 +1298,14 @@
         <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="11" t="s">
@@ -1354,20 +1329,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1385,14 +1362,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="11" t="s">
@@ -1416,14 +1393,14 @@
         <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="11" t="s">
@@ -1447,20 +1424,22 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1482,10 +1461,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="11" t="s">
@@ -1509,20 +1488,22 @@
         <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1534,6 +1515,8 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
@@ -1544,14 +1527,14 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="2"/>
@@ -1565,24 +1548,26 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="2"/>
@@ -1596,26 +1581,30 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1630,25 +1619,13 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="11"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1663,25 +1640,15 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="11"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1696,25 +1663,15 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>22</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="11"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1729,27 +1686,15 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>23</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>86</v>
-      </c>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1771,6 +1716,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2246,15 +2193,8 @@
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2269,15 +2209,6 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -2291,82 +2222,6 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B5:C5"/>
@@ -2377,7 +2232,7 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C10:F15 C16:E16 C17:F23 A10:B23 G10:H32 A24:F32">
+  <conditionalFormatting sqref="C10:F15 C16:E16 C17:F21 A10:B21 G10:H21 A22:H28">
     <cfRule type="expression" dxfId="0" priority="33">
       <formula>#REF!=TRUE</formula>
     </cfRule>

--- a/Documentation/TestPlan.xlsx
+++ b/Documentation/TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lungu\Desktop\individual-track-assignment-andreea-indrilaru\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194A3AD-1145-4A0B-B883-4C25A891A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B62246-CF56-490B-A320-166982312A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>Project Name</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>Show the tickets sorted by date desc</t>
   </si>
   <si>
     <t xml:space="preserve">Updating movie details </t>
@@ -254,6 +251,48 @@
   </si>
   <si>
     <t>Google Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Got the required list </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User created in the database</t>
+  </si>
+  <si>
+    <t>Got the required list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User is redirected to the news page</t>
+  </si>
+  <si>
+    <t>Ticket is created and added to "My Tickets"</t>
+  </si>
+  <si>
+    <t>Movie removed from the database</t>
+  </si>
+  <si>
+    <t>Movie added to the database</t>
+  </si>
+  <si>
+    <t>Movie updated</t>
+  </si>
+  <si>
+    <t>Username is changed</t>
+  </si>
+  <si>
+    <t>Show personal data</t>
+  </si>
+  <si>
+    <t>Complaint added to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show the tickets </t>
+  </si>
+  <si>
+    <t>Tickets are show in "My Tickets"</t>
+  </si>
+  <si>
+    <t>Personal data is modified in the database</t>
   </si>
 </sst>
 </file>
@@ -331,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,6 +393,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -362,7 +412,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,6 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -753,7 +804,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,7 +814,7 @@
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="41.125" customWidth="1"/>
     <col min="5" max="5" width="38.375" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="39.25" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="2"/>
@@ -1013,14 +1064,16 @@
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1048,12 +1101,14 @@
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1081,12 +1136,14 @@
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1114,12 +1171,14 @@
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1145,14 +1204,16 @@
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1178,14 +1239,16 @@
         <v>33</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1213,10 +1276,15 @@
       <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F16" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="G16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1243,12 +1311,14 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1271,16 +1341,20 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1305,13 +1379,17 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1329,21 +1407,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1366,16 +1446,20 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1397,16 +1481,20 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1433,12 +1521,14 @@
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1466,11 +1556,15 @@
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1492,17 +1586,19 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G25" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1527,16 +1623,20 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1560,16 +1660,20 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="11"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1593,17 +1697,19 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2232,7 +2338,7 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C10:F15 C16:E16 C17:F21 A10:B21 G10:H21 A22:H28">
+  <conditionalFormatting sqref="A10:H28">
     <cfRule type="expression" dxfId="0" priority="33">
       <formula>#REF!=TRUE</formula>
     </cfRule>
